--- a/data/data_raw/eurostat/AT_fertilizer_aei_fm_usefert.xlsx
+++ b/data/data_raw/eurostat/AT_fertilizer_aei_fm_usefert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,11 @@
           <t>2022</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -693,6 +698,9 @@
       <c r="AG2" t="n">
         <v>97561</v>
       </c>
+      <c r="AH2" t="n">
+        <v>97604.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -792,6 +800,9 @@
       <c r="AG3" t="n">
         <v>6765</v>
       </c>
+      <c r="AH3" t="n">
+        <v>8621.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
